--- a/Backend/Data/xlxl/guestData.xlsx
+++ b/Backend/Data/xlxl/guestData.xlsx
@@ -468,6 +468,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Backend/Data/xlxl/guestData.xlsx
+++ b/Backend/Data/xlxl/guestData.xlsx
@@ -31,19 +31,19 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>NItesh</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>Shreed</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2025-01-08</t>
   </si>
   <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2025-01-11</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>12345678</t>
